--- a/openpyxl/exemplo.xlsx
+++ b/openpyxl/exemplo.xlsx
@@ -138,6 +138,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7696200" cy="7315200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,7 +501,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20.1640625" customWidth="1" min="1" max="1"/>
   </cols>
@@ -480,17 +510,6 @@
       <c r="A1" s="1" t="n">
         <v>42099.56530092593</v>
       </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Apples</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="n">
-        <v>73</v>
-      </c>
-      <c r="D1" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -591,6 +610,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
